--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drasv\github\lasermaze-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B38DFF3-236B-4DCF-8A09-6BE039A76DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BED2E8-35DE-4B19-9AC6-77C21590EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{0022BD4E-F9A6-4C25-9E4A-EDC1DD7B1223}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0022BD4E-F9A6-4C25-9E4A-EDC1DD7B1223}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="58">
   <si>
     <t>Reference</t>
   </si>
@@ -209,14 +209,42 @@
   </si>
   <si>
     <t>totaal</t>
+  </si>
+  <si>
+    <t>PCB sets of 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,8 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -560,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B572F696-7B72-4787-BDD9-52B4454D3607}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +602,7 @@
     <col min="2" max="2" width="81.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,8 +937,8 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f>C17*2</f>
-        <v>2</v>
+        <f>C17*2*$D$32</f>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -927,8 +958,8 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <f>C18*2</f>
-        <v>2</v>
+        <f>C18*2*$D$32</f>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -948,8 +979,8 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <f>C19</f>
-        <v>24</v>
+        <f>C19*$D$32</f>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -969,8 +1000,8 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <f>C20*2</f>
-        <v>2</v>
+        <f>C20*2*$D$32</f>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -990,8 +1021,8 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <f>C21</f>
-        <v>8</v>
+        <f>C21*$D$32</f>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1011,8 +1042,8 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <f>C22</f>
-        <v>7</v>
+        <f>C22*$D$32</f>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
@@ -1032,8 +1063,8 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <f>C23*2</f>
-        <v>2</v>
+        <f>C23*2*$D$32</f>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -1053,8 +1084,8 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <f>C24*2</f>
-        <v>18</v>
+        <f>C24*2*$D$32</f>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
@@ -1074,8 +1105,8 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <f>C25*2</f>
-        <v>14</v>
+        <f>C25*2*$D$32</f>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -1095,8 +1126,8 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <f>C26</f>
-        <v>8</v>
+        <f>C26*$D$32</f>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -1116,8 +1147,8 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <f>C27</f>
-        <v>8</v>
+        <f>C27*$D$32</f>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -1137,11 +1168,11 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <f>C28</f>
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>150</v>
+        <f>C28*$D$32</f>
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -1158,8 +1189,8 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <f>C29*2</f>
-        <v>2</v>
+        <f>C29*2*$D$32</f>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -1182,8 +1213,8 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <f>C30*2</f>
-        <v>2</v>
+        <f>C30*2*$D$32</f>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
@@ -1192,7 +1223,228 @@
         <v>40</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="2">
+        <f>SUMIF(E$2:E$30,E35,D$2:D$30)</f>
+        <v>8</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f>VLOOKUP(E35,E$2:F$30,2,FALSE)</f>
+        <v>Capacitor_THT:CP_Radial_D5.0mm_P2.00mm</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <f t="shared" ref="C36:C49" si="2">SUMIF(E$2:E$30,E36,D$2:D$30)</f>
+        <v>8</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" ref="F36:F49" si="3">VLOOKUP(E36,E$2:F$30,2,FALSE)</f>
+        <v>Capacitor_THT:CP_Radial_D5.0mm_P2.00mm</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Diode_THT:D_DO-41_SOD81_P12.70mm_Horizontal</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Diode_THT:D_DO-35_SOD27_P7.62mm_Horizontal</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Package_TO_SOT_THT:SIPAK_Vertical</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Package_TO_SOT_SMD:SOT-23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Package_TO_SOT_THT:TO-220-3_Horizontal_TabDown</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>components:SRD-05VDC-SL-C</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v>TerminalBlock:TerminalBlock_Altech_AK300-2_P5.00mm</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Module:WEMOS_D1_mini_light</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E35:E60">
+    <sortCondition ref="E35:E60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>